--- a/FASE 2/Evidencias Proyecto/Metodologia Tradicional/Matriz RACI.xlsx
+++ b/FASE 2/Evidencias Proyecto/Metodologia Tradicional/Matriz RACI.xlsx
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -277,11 +277,11 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,9 +291,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +513,6 @@
     <col customWidth="1" min="3" max="3" width="15.71"/>
     <col customWidth="1" min="4" max="4" width="14.14"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
     <col customWidth="1" min="7" max="26" width="10.71"/>
   </cols>
   <sheetData>
@@ -759,7 +755,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -895,7 +891,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1048,7 +1044,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1065,7 +1061,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1082,7 +1078,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1133,11 +1129,11 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>10</v>
@@ -1146,24 +1142,24 @@
         <v>8</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -1184,7 +1180,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -1201,7 +1197,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="5" t="s">
